--- a/setup-reg.xlsx
+++ b/setup-reg.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\google-ads\google-ads-20-01-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <r>
       <rPr>
@@ -102,13 +102,37 @@
     <t xml:space="preserve">123 ABC STREET
 </t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NameHolder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="00000"/>
+    <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -164,14 +188,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -460,7 +484,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
